--- a/data/best_plan.xlsx
+++ b/data/best_plan.xlsx
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1753,29 +1753,29 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Wout</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1795,30 +1795,30 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(15, 17, 9)</t>
+          <t>(17, 2, 22)</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wout</t>
+          <t>Helena</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1841,30 +1841,30 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(17, 2, 22)</t>
+          <t>(19, 20, 11)</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>Denzel</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(15,)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1887,33 +1887,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(11, 10, 14)</t>
+          <t>(15, 17, 13)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Denzel</t>
+          <t>Ties</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(15,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(15, 17, 13)</t>
+          <t>(13, 15, 17)</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fiene</t>
+          <t>Pifte</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(5, 2, 18)</t>
+          <t>(9, 23, 4)</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2218,27 +2218,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Elias</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>(21, 17, 3)</t>
+          <t>(9, 16, 17)</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>3.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>2.416666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="F15" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0.08333333333333333</v>
@@ -2416,29 +2416,29 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(14, 5, 10)</t>
+          <t>(15, 17, 9)</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -2467,11 +2467,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helena</t>
+          <t>Amelia</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2504,33 +2504,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(19, 20, 11)</t>
+          <t>(11, 10, 14)</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ties</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(13, 15, 17)</t>
+          <t>(14, 5, 10)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2692,20 +2692,20 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pifte</t>
+          <t>Fiene</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(9, 23, 4)</t>
+          <t>(5, 2, 18)</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -2830,32 +2830,32 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Elias</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>(9, 16, 17)</t>
+          <t>(21, 17, 3)</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -2887,19 +2887,19 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>-0.09090909090909091</v>
+        <v>-0.2727272727272727</v>
       </c>
       <c r="D15" t="n">
-        <v>3.454545454545455</v>
+        <v>3.818181818181818</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="F15" t="n">
         <v>0.4545454545454545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
